--- a/test/files/example2.xlsx
+++ b/test/files/example2.xlsx
@@ -10,7 +10,7 @@
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">sheet1!$A$1:$J$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">'sheet1'!$A$1:$J$12</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
